--- a/Shrimp.Pdf/Resources/Colors/PdfFunction0.xlsx
+++ b/Shrimp.Pdf/Resources/Colors/PdfFunction0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Workspace\Shrimp.Pdf\Shrimp.Pdf\Resources\Colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A26BD-3734-460E-933B-36A8A495F8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA6A4E-BB7B-42AA-8435-6945C7EC4FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +95,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P766"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="D766" sqref="B763:D766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,7 +488,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>255</v>
       </c>
       <c r="B2">
@@ -475,7 +496,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>128</v>
       </c>
       <c r="C3">
@@ -483,7 +504,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>128</v>
       </c>
       <c r="D4">
@@ -515,7 +536,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>254</v>
       </c>
       <c r="B8">
@@ -523,7 +544,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>128</v>
       </c>
       <c r="C9">
@@ -531,7 +552,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>128</v>
       </c>
       <c r="D10">
@@ -6651,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF713297-AB64-4D4C-A174-CC15159C56E2}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6709,10 +6730,10 @@
         <v>66</v>
       </c>
       <c r="K3">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2">
         <v>100</v>
-      </c>
-      <c r="L3" s="1">
-        <v>92</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -6838,6 +6859,16 @@
       </c>
       <c r="I16">
         <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>G16-G15</f>
+        <v>-137</v>
+      </c>
+      <c r="H18">
+        <f>H16-H15</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Shrimp.Pdf/Resources/Colors/PdfFunction0.xlsx
+++ b/Shrimp.Pdf/Resources/Colors/PdfFunction0.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Workspace\Shrimp.Pdf\Shrimp.Pdf\Resources\Colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA6A4E-BB7B-42AA-8435-6945C7EC4FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8236AB4-24F1-4263-AB3E-8788DCF5234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="lab1" sheetId="2" r:id="rId1"/>
+    <sheet name="lab2" sheetId="1" r:id="rId2"/>
+    <sheet name="cmyk2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Column1</t>
   </si>
@@ -49,23 +50,19 @@
     <t>Column4</t>
   </si>
   <si>
-    <t>l</t>
+    <t>Lab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>cmyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Decode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lab</t>
+    <t>Dict_RangeOrDecode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,19 +165,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486227E4-1ACC-40B6-8369-59F0BB56E65F}" name="Table1" displayName="Table1" ref="A1:D766" totalsRowShown="0">
-  <autoFilter ref="A1:D766" xr:uid="{486227E4-1ACC-40B6-8369-59F0BB56E65F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B1507F0-AD66-47D4-9108-A770F95B7A39}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{2B544C84-D96B-4B19-9617-C37C36319C4E}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{15D3C3C4-E02A-49C9-87D8-B6178A12D13B}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{5A065D3E-DF0B-4906-ABC7-DC1664338A72}" name="Column4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{514AF182-F3CF-4E2A-B73C-A2DFE07296F0}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{514AF182-F3CF-4E2A-B73C-A2DFE07296F0}"/>
   <tableColumns count="4">
@@ -194,6 +178,19 @@
     <tableColumn id="4" xr3:uid="{A29A490E-6A86-47EB-806F-AFEC87062D25}" name="Column4" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Column1]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{486227E4-1ACC-40B6-8369-59F0BB56E65F}" name="Table1" displayName="Table1" ref="A1:D766" totalsRowShown="0">
+  <autoFilter ref="A1:D766" xr:uid="{486227E4-1ACC-40B6-8369-59F0BB56E65F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1B1507F0-AD66-47D4-9108-A770F95B7A39}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{2B544C84-D96B-4B19-9617-C37C36319C4E}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{15D3C3C4-E02A-49C9-87D8-B6178A12D13B}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{5A065D3E-DF0B-4906-ABC7-DC1664338A72}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,11 +458,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF713297-AB64-4D4C-A174-CC15159C56E2}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <v>-8</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-8</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>255</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <f>Table2[[#This Row],[Column1]]</f>
+        <v>255</v>
+      </c>
+      <c r="G7">
+        <v>255</v>
+      </c>
+      <c r="H7">
+        <v>255</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>46</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>-128</v>
+      </c>
+      <c r="N12">
+        <v>128</v>
+      </c>
+      <c r="O12">
+        <v>-128</v>
+      </c>
+      <c r="P12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>255</v>
+      </c>
+      <c r="H15">
+        <v>128</v>
+      </c>
+      <c r="I15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>118</v>
+      </c>
+      <c r="H16">
+        <v>164</v>
+      </c>
+      <c r="I16">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="136" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P766"/>
+  <dimension ref="A1:D766"/>
   <sheetViews>
-    <sheetView topLeftCell="A753" workbookViewId="0">
-      <selection activeCell="D766" sqref="B763:D766"/>
+    <sheetView topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="F756" sqref="F756:Q764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6495,7 +6701,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="753" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>164</v>
       </c>
@@ -6503,7 +6709,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="754" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>144</v>
       </c>
@@ -6511,7 +6717,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="755" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>120</v>
       </c>
@@ -6519,7 +6725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>164</v>
       </c>
@@ -6527,7 +6733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>144</v>
       </c>
@@ -6535,59 +6741,23 @@
         <v>144</v>
       </c>
     </row>
-    <row r="758" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>119</v>
       </c>
       <c r="B758">
         <v>119</v>
       </c>
-      <c r="G758" t="s">
-        <v>4</v>
-      </c>
-      <c r="H758" t="s">
-        <v>5</v>
-      </c>
-      <c r="I758" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>164</v>
       </c>
       <c r="C759">
         <v>164</v>
       </c>
-      <c r="G759">
-        <v>46</v>
-      </c>
-      <c r="H759">
-        <v>37</v>
-      </c>
-      <c r="I759">
-        <v>17</v>
-      </c>
-      <c r="K759">
-        <v>0</v>
-      </c>
-      <c r="L759">
-        <v>100</v>
-      </c>
-      <c r="M759">
-        <v>-128</v>
-      </c>
-      <c r="N759">
-        <v>128</v>
-      </c>
-      <c r="O759">
-        <v>-128</v>
-      </c>
-      <c r="P759">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>144</v>
       </c>
@@ -6595,7 +6765,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="761" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>119</v>
       </c>
@@ -6603,41 +6773,23 @@
         <v>119</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>164</v>
       </c>
       <c r="C762">
         <v>164</v>
       </c>
-      <c r="G762">
-        <v>255</v>
-      </c>
-      <c r="H762">
-        <v>128</v>
-      </c>
-      <c r="I762">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>144</v>
       </c>
       <c r="D763">
         <v>144</v>
       </c>
-      <c r="G763">
-        <v>118</v>
-      </c>
-      <c r="H763">
-        <v>164</v>
-      </c>
-      <c r="I763">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>118</v>
       </c>
@@ -6645,7 +6797,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="765" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>164</v>
       </c>
@@ -6653,7 +6805,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="766" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>144</v>
       </c>
@@ -6670,212 +6822,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF713297-AB64-4D4C-A174-CC15159C56E2}">
-  <dimension ref="A1:P18"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66199770-F77C-4EB8-8A14-50516C8588B8}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>Table2[[#This Row],[Column1]]</f>
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>0</v>
       </c>
-      <c r="C3">
-        <f>Table2[[#This Row],[Column1]]</f>
+      <c r="B5">
+        <v>191</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>92</v>
-      </c>
-      <c r="H3">
-        <v>-8</v>
-      </c>
-      <c r="I3">
-        <v>66</v>
-      </c>
-      <c r="K3">
-        <v>92</v>
-      </c>
-      <c r="L3" s="2">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-8</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Table2[[#This Row],[Column1]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>255</v>
-      </c>
-      <c r="B5">
-        <f>Table2[[#This Row],[Column1]]</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>255</v>
-      </c>
-      <c r="C6">
-        <f>Table2[[#This Row],[Column1]]</f>
-        <v>255</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>255</v>
-      </c>
-      <c r="D7">
-        <f>Table2[[#This Row],[Column1]]</f>
-        <v>255</v>
-      </c>
-      <c r="G7">
-        <v>255</v>
-      </c>
-      <c r="H7">
-        <v>255</v>
-      </c>
-      <c r="I7">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <v>46</v>
-      </c>
-      <c r="H12">
-        <v>37</v>
-      </c>
-      <c r="I12">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>-128</v>
-      </c>
-      <c r="N12">
-        <v>128</v>
-      </c>
-      <c r="O12">
-        <v>-128</v>
-      </c>
-      <c r="P12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>255</v>
-      </c>
-      <c r="H15">
-        <v>128</v>
-      </c>
-      <c r="I15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <v>118</v>
-      </c>
-      <c r="H16">
-        <v>164</v>
-      </c>
-      <c r="I16">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f>G16-G15</f>
-        <v>-137</v>
-      </c>
-      <c r="H18">
-        <f>H16-H15</f>
-        <v>36</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>B5/255</f>
+        <v>0.74901960784313726</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>